--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794238</v>
+        <v>3065597.017418167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216904</v>
+        <v>8662070.799216902</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>302.3889105708073</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>366.872127809863</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>65.0588499087778</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>144.2416157073184</v>
+        <v>75.51862566593917</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>24.98230461792439</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>170.7225964227727</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.5086084817269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>65.44321853360965</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>112.2385490983608</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>267.0154181407639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217651</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>73.23997380652447</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>104.7777418077836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>74.56474874233423</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808339</v>
       </c>
       <c r="V25" t="n">
-        <v>248.4096472065915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>74.53917159609115</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>134.791087302075</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>183.6332960747971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>82.25298866282571</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.9183958257884</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.66636605273428</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>117.6449484365337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>216.8180354051593</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>995.9506728057374</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>995.9506728057374</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>995.9506728057374</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>995.9506728057374</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.9506728057374</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415667</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6589918292309</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6589918292309</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6589918292309</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2551.450489293658</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="U5" t="n">
-        <v>2297.68870393175</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.625816588179</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W5" t="n">
-        <v>1613.857161318065</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>702.8943330772177</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>533.9581501493108</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>702.8943330772177</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>702.8943330772177</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>702.8943330772177</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.8943330772177</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.239783601035</v>
+        <v>1626.070619578539</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.239783601035</v>
+        <v>1626.070619578539</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>1267.804920971789</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4810,16 +4810,16 @@
         <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>803.6554202972151</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1435.373231280527</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>2062.680899340373</v>
+        <v>2290.483082123151</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2309.902162192224</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>1978.839274848653</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.673833257799</v>
+        <v>1626.070619578539</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.208074996719</v>
+        <v>1626.070619578539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1200.239783601035</v>
+        <v>1626.070619578539</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>217.6197275495861</v>
+        <v>296.5836898399692</v>
       </c>
       <c r="L9" t="n">
-        <v>721.9812674157047</v>
+        <v>800.9452297060877</v>
       </c>
       <c r="M9" t="n">
-        <v>1362.526616882809</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>2030.071016909819</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
         <v>2189.58332957858</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>634.2475255767915</v>
+        <v>288.9834258933316</v>
       </c>
       <c r="C10" t="n">
-        <v>634.2475255767915</v>
+        <v>120.0472429654247</v>
       </c>
       <c r="D10" t="n">
-        <v>634.2475255767915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>486.3344319943984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>339.444484496488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>339.444484496488</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>185.1898413962531</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>634.2475255767915</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>634.2475255767915</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>634.2475255767915</v>
+        <v>509.7760050368617</v>
       </c>
       <c r="X10" t="n">
-        <v>634.2475255767915</v>
+        <v>509.7760050368617</v>
       </c>
       <c r="Y10" t="n">
-        <v>634.2475255767915</v>
+        <v>288.9834258933316</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.5582272005026</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.98882207229</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>935.9992711742725</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.2066920307424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2123.082773965825</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2123.082773965825</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3301.483384420093</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.547201492187</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D22" t="n">
-        <v>2982.430562079851</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E22" t="n">
-        <v>2834.517468497458</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>336.3306903556518</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>169.1345910705317</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>169.1345910705317</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>3931.91397929188</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>3703.924428393863</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>3483.131849250333</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>840.841793202179</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1437.467018292492</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1148.049848255532</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>920.0602973575143</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.2677182139842</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1087555692761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>169.1087555692761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123343</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>1234.819773699966</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D34" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>547.5889719879178</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>400.6990244900074</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6958,16 +6958,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7092,16 +7092,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,34 +7186,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2078.229264238543</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.154037582741</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1534.469549376854</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.052379339893</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.062828441876</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>796.270249298346</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>888.6771326738537</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>738.560493261518</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>590.6473996791249</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>187.5579996183521</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8467,10 +8467,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>91.69549323938426</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>97.03931925844913</v>
+        <v>176.8008973295431</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>19.50758019582707</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.64330621514763</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6.701087576231302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>191.8807364711608</v>
       </c>
       <c r="V25" t="n">
-        <v>3.727996117236501</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.726664722474382</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>45.04089287986227</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.8897022617939</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>83.27114962944313</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>32.79125956324873</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.9182872993605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>99.7605018907546</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846415</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365054</v>
@@ -26328,34 +26328,34 @@
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682774</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682776</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563457</v>
+        <v>-184863.8683563459</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581985</v>
+        <v>405104.0108581984</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.204764403</v>
+        <v>249300.2047644029</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.148034891</v>
+        <v>-192125.5272892478</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459157</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.5433459157</v>
+        <v>578927.164091559</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.164091559</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915584</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533229</v>
+        <v>402503.9448989664</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915587</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915591</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.032637857</v>
+        <v>454718.6533835002</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459157</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.543345916</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.5433459155</v>
+        <v>578927.1640915588</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>62.88398120020025</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.00391793184843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>87.82394329977933</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102.2509523502731</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>72.20670465033942</v>
+        <v>140.9296946917186</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>227.1553387059036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>80.43218979952789</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.7293301743267</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>83.1722544846027</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>11.0280087810562</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,10 +32323,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,7 +32335,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>183.7183104822601</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222605</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>553.3925020622937</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>574.6535388222617</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>328.294015619618</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35187,10 +35187,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>263.5833975999494</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>165.330046191133</v>
+        <v>245.091624262227</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35263,10 +35263,10 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>432.0572943778161</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>414.8381222824195</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>432.0572943778172</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3065597.017418167</v>
+        <v>3067357.547720952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>302.3889105708073</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>13.45009473703782</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>92.00803688215797</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>75.51862566593917</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053125</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>27.4054202032156</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>170.7225964227727</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>65.44321853360965</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>275.6564069938788</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>74.56474874233423</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>140.7215037338438</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.30373791808339</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.791087302075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>192.9183958257884</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>216.8180354051593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.349585887292</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2429.801351376478</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2077.032696106363</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635.1915732143555</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>635.1915732143555</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2565.83896148211</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.077176120202</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.014288776631</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.245633506517</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.779875245437</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.6405432696254</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477206</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653275</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674171</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.070619578539</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.070619578539</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>2290.483082123151</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
         <v>2551.430645747101</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.466848388712</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2669.466848388712</v>
       </c>
       <c r="U8" t="n">
-        <v>2309.902162192224</v>
+        <v>2669.466848388712</v>
       </c>
       <c r="V8" t="n">
-        <v>1978.839274848653</v>
+        <v>2338.403961045141</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.070619578539</v>
+        <v>1985.635305775027</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.070619578539</v>
+        <v>1612.169547513947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.070619578539</v>
+        <v>1222.030215538135</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
         <v>1640.147320825857</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.9834258933316</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>120.0472429654247</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7760050368617</v>
+        <v>775.436848134377</v>
       </c>
       <c r="X10" t="n">
-        <v>509.7760050368617</v>
+        <v>775.436848134377</v>
       </c>
       <c r="Y10" t="n">
-        <v>288.9834258933316</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5026,31 +5026,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5190,13 +5190,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
         <v>949.9304447718133</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5597,10 +5597,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.1865537761979</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>781.250370848291</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>631.1337314359553</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>483.2206378535622</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>336.3306903556518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>169.1345910705317</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>169.1345910705317</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>840.841793202179</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756786</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6153,46 +6153,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.601903741513</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.612352843496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.819773699966</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7019,16 +7019,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,7 +8467,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>91.69549323938426</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>74.01734528517878</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.701087576231302</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>145.8014946027472</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8807364711608</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.04089287986227</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>32.79125956324873</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563459</v>
+        <v>-184863.868356346</v>
       </c>
       <c r="C6" t="n">
         <v>405104.0108581984</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.2047644029</v>
+        <v>249300.2047644028</v>
       </c>
       <c r="E6" t="n">
-        <v>-192125.5272892478</v>
+        <v>-191812.8859603263</v>
       </c>
       <c r="F6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.80542048</v>
       </c>
       <c r="G6" t="n">
-        <v>578927.164091559</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="H6" t="n">
-        <v>578927.164091559</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="I6" t="n">
-        <v>578927.1640915584</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="J6" t="n">
-        <v>402503.9448989664</v>
+        <v>402816.5862278872</v>
       </c>
       <c r="K6" t="n">
-        <v>578927.1640915587</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="L6" t="n">
-        <v>578927.1640915591</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="M6" t="n">
-        <v>454718.6533835002</v>
+        <v>455031.2947124214</v>
       </c>
       <c r="N6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.80542048</v>
       </c>
       <c r="O6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="P6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.8054204802</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26977,16 +26977,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>62.88398120020025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>314.3021637330971</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.82394329977933</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646987</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>140.9296946917186</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800574</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>127.2474669249246</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>80.43218979952789</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83.1722544846027</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28070,10 +28070,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>10.86659134271218</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>574.6535388222605</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32873,31 +32873,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35187,7 +35187,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>263.5833975999494</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>212.6331008565868</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>432.0572943778161</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
